--- a/data/trans_bre/IP08-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP08-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,33</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-6,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-10,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-39,84%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,01%</t>
+          <t>-33,32%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>145,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,06%</t>
+          <t>-55,65%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,07; -0,68</t>
+          <t>-11,78; 20,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 4,45</t>
+          <t>-25,28; 12,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 4,89</t>
+          <t>-4,08; 26,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 4,96</t>
+          <t>-33,25; 6,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-62,64; -5,16</t>
+          <t>-100,0; 867,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-34,07; 41,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-32,67; 73,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-47,31; 61,29</t>
+          <t>-100,0; 144,57</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,74</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>-39,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-24,09%</t>
+          <t>-4,01%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-18,36%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-38,12%</t>
+          <t>-6,06%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 5,53</t>
+          <t>-10,07; -0,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 1,65</t>
+          <t>-5,69; 4,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 3,04</t>
+          <t>-3,95; 4,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 0,51</t>
+          <t>-5,58; 4,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-35,79; 63,23</t>
+          <t>-62,64; -5,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-52,9; 15,05</t>
+          <t>-34,07; 41,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-59,92; 75,7</t>
+          <t>-32,67; 73,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-63,13; 6,0</t>
+          <t>-47,31; 61,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,13</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,97</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>-44,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-33,32%</t>
+          <t>-15,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>145,09%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-55,65%</t>
+          <t>-21,95%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 20,56</t>
+          <t>-9,68; 0,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 12,85</t>
+          <t>-8,67; 3,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 26,4</t>
+          <t>-2,98; 5,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,25; 6,73</t>
+          <t>-8,52; 2,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 867,86</t>
+          <t>-73,33; 5,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,76; 33,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,9; 162,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 144,57</t>
+          <t>-57,23; 44,12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-5,74</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-44,39%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-15,77%</t>
+          <t>-24,09%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>-18,36%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-21,95%</t>
+          <t>-38,12%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 0,26</t>
+          <t>-4,54; 5,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 3,92</t>
+          <t>-8,61; 1,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 5,32</t>
+          <t>-4,88; 3,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 2,94</t>
+          <t>-11,4; 0,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-73,33; 5,78</t>
+          <t>-35,79; 63,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-46,76; 33,02</t>
+          <t>-52,9; 15,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-41,9; 162,33</t>
+          <t>-59,92; 75,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-57,23; 44,12</t>
+          <t>-63,13; 6,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP08-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP08-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 20,56</t>
+          <t>-12,17; 18,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 12,85</t>
+          <t>-25,27; 15,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 26,4</t>
+          <t>-3,98; 24,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 867,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,1; -0,18</t>
+          <t>-11,4; 0,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 6,65</t>
+          <t>-6,74; 5,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 2,98</t>
+          <t>-7,5; 3,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,83; 4,26</t>
+          <t>-20,83; 3,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-76,61; 1,15</t>
+          <t>-75,64; 6,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,38; 94,42</t>
+          <t>-50,36; 91,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,03; 68,47</t>
+          <t>-73,29; 75,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-78,76; 61,6</t>
+          <t>-73,92; 56,69</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,07; -0,68</t>
+          <t>-10,71; -0,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 4,45</t>
+          <t>-5,51; 4,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 4,89</t>
+          <t>-4,4; 5,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 4,96</t>
+          <t>-5,71; 5,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-62,64; -5,16</t>
+          <t>-62,9; -4,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,07; 41,38</t>
+          <t>-33,64; 41,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,67; 73,89</t>
+          <t>-37,94; 73,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-47,31; 61,29</t>
+          <t>-47,78; 63,73</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 0,26</t>
+          <t>-9,57; 0,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 3,92</t>
+          <t>-8,61; 3,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 5,32</t>
+          <t>-3,39; 4,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 2,94</t>
+          <t>-8,24; 3,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-73,33; 5,78</t>
+          <t>-72,04; 7,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,76; 33,02</t>
+          <t>-45,68; 26,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,9; 162,33</t>
+          <t>-45,81; 119,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-57,23; 44,12</t>
+          <t>-57,39; 46,38</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 5,53</t>
+          <t>-4,62; 5,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 1,65</t>
+          <t>-8,85; 2,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 3,04</t>
+          <t>-4,66; 2,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 0,51</t>
+          <t>-11,99; -0,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-35,79; 63,23</t>
+          <t>-36,11; 61,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-52,9; 15,05</t>
+          <t>-52,82; 20,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-59,92; 75,7</t>
+          <t>-60,47; 72,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-63,13; 6,0</t>
+          <t>-63,52; 2,86</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,95; -0,73</t>
+          <t>-5,94; -0,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 0,8</t>
+          <t>-4,82; 0,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 1,95</t>
+          <t>-2,3; 2,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,6; -0,18</t>
+          <t>-6,3; 0,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,33; -6,67</t>
+          <t>-46,37; -4,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,06; 7,29</t>
+          <t>-32,44; 6,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,63; 33,25</t>
+          <t>-28,14; 38,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-43,98; -0,12</t>
+          <t>-43,78; 1,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP08-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP08-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 18,13</t>
+          <t>-12,48; 17,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 15,83</t>
+          <t>-26,51; 13,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 24,7</t>
+          <t>-5,83; 26,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-33,25; 6,73</t>
+          <t>-35,67; 6,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,24 +693,24 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 199,83</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 144,57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 0,14</t>
+          <t>-11,43; 0,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 5,91</t>
+          <t>-7,1; 6,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 3,0</t>
+          <t>-7,35; 2,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,83; 3,82</t>
+          <t>-21,52; 4,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,64; 6,53</t>
+          <t>-74,86; 11,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-50,36; 91,2</t>
+          <t>-54,94; 95,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-73,29; 75,52</t>
+          <t>-70,9; 74,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-73,92; 56,69</t>
+          <t>-81,19; 54,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,71; -0,67</t>
+          <t>-10,21; -0,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 4,53</t>
+          <t>-6,42; 4,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 5,24</t>
+          <t>-3,99; 4,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 5,09</t>
+          <t>-5,4; 4,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-62,9; -4,92</t>
+          <t>-63,11; -4,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,64; 41,0</t>
+          <t>-37,07; 37,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-37,94; 73,0</t>
+          <t>-35,93; 74,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-47,78; 63,73</t>
+          <t>-44,63; 59,95</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 0,22</t>
+          <t>-9,76; 0,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 3,27</t>
+          <t>-7,86; 3,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 4,41</t>
+          <t>-3,36; 5,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 3,34</t>
+          <t>-8,16; 3,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-72,04; 7,45</t>
+          <t>-73,17; 11,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,68; 26,81</t>
+          <t>-45,9; 29,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,81; 119,67</t>
+          <t>-45,98; 167,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-57,39; 46,38</t>
+          <t>-54,92; 44,9</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 5,09</t>
+          <t>-4,42; 5,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 2,0</t>
+          <t>-8,46; 2,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 2,7</t>
+          <t>-4,53; 2,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,99; -0,02</t>
+          <t>-11,52; 0,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-36,11; 61,34</t>
+          <t>-33,79; 67,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-52,82; 20,02</t>
+          <t>-53,98; 20,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-60,47; 72,98</t>
+          <t>-58,4; 77,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-63,52; 2,86</t>
+          <t>-63,03; 2,86</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,94; -0,43</t>
+          <t>-5,86; -0,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 0,72</t>
+          <t>-4,95; 1,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,17</t>
+          <t>-2,54; 2,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 0,17</t>
+          <t>-6,35; 0,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,37; -4,11</t>
+          <t>-45,35; -8,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 6,07</t>
+          <t>-33,06; 8,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,14; 38,6</t>
+          <t>-30,65; 35,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-43,78; 1,45</t>
+          <t>-43,14; 0,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP08-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP08-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que han sufrido alguna dolencia o enfermedad continuada</t>
+          <t>Menores que sufrieron alguna dolencia, enfermedad o impedimento que le ha limitado de forma continuada (más de 10 días en los últimos 12 meses)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,13</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,97</t>
+          <t>-6,81</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>-38,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-33,32%</t>
+          <t>-13,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>145,09%</t>
+          <t>-8,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-55,65%</t>
+          <t>-39,93%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 17,93</t>
+          <t>-10,77; 0,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 13,28</t>
+          <t>-8,14; 4,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 26,41</t>
+          <t>-5,22; 4,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-35,67; 6,42</t>
+          <t>-28,77; 2,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,03; 7,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 199,83</t>
+          <t>-55,97; 58,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,03; 109,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,76; 28,8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,67</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-47,35%</t>
+          <t>-39,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,29%</t>
+          <t>-4,01%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-25,92%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-28,69%</t>
+          <t>9,39%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 0,63</t>
+          <t>-10,07; -0,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 6,11</t>
+          <t>-5,69; 4,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 2,97</t>
+          <t>-3,95; 4,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 4,52</t>
+          <t>-4,16; 11,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-74,86; 11,92</t>
+          <t>-62,64; -5,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,94; 95,55</t>
+          <t>-34,07; 41,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,9; 74,57</t>
+          <t>-32,67; 73,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-81,19; 54,88</t>
+          <t>-38,92; 124,09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,33</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-39,84%</t>
+          <t>-44,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,01%</t>
+          <t>-15,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,06%</t>
+          <t>-32,19%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,21; -0,76</t>
+          <t>-9,68; 0,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 4,19</t>
+          <t>-8,67; 3,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 4,88</t>
+          <t>-2,98; 5,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 4,6</t>
+          <t>-9,97; 1,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-63,11; -4,3</t>
+          <t>-73,33; 5,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,07; 37,37</t>
+          <t>-46,76; 33,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,93; 74,88</t>
+          <t>-41,9; 162,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-44,63; 59,95</t>
+          <t>-65,69; 28,36</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-6,23</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-44,39%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-15,77%</t>
+          <t>-24,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>-18,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-21,95%</t>
+          <t>-40,04%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 0,62</t>
+          <t>-4,54; 5,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 3,55</t>
+          <t>-8,61; 1,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 5,45</t>
+          <t>-4,88; 3,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 3,34</t>
+          <t>-12,15; 0,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-73,17; 11,07</t>
+          <t>-35,79; 63,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,9; 29,59</t>
+          <t>-52,9; 15,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,98; 167,3</t>
+          <t>-59,92; 75,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-54,92; 44,9</t>
+          <t>-64,57; 2,2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,74</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>-28,57%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-24,09%</t>
+          <t>-14,21%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-18,36%</t>
+          <t>-2,17%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-38,12%</t>
+          <t>-26,65%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 5,54</t>
+          <t>-5,95; -0,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 2,21</t>
+          <t>-5,1; 0,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 2,91</t>
+          <t>-2,54; 1,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 0,2</t>
+          <t>-8,0; -0,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,79; 67,05</t>
+          <t>-45,33; -6,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-53,98; 20,62</t>
+          <t>-32,06; 7,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-58,4; 77,28</t>
+          <t>-31,63; 33,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-63,03; 2,86</t>
+          <t>-49,54; 2,13</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-3,3</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,93</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-3,05</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-28,57%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-14,21%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-2,17%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-24,61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-5,86; -0,87</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,95; 1,07</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,54; 2,1</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-6,35; 0,04</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-45,35; -8,06</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-33,06; 8,51</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-30,65; 35,15</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-43,14; 0,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
